--- a/projectdoc/Stakeholder_Map_OeV_Gueteklassen_2018.xlsx
+++ b/projectdoc/Stakeholder_Map_OeV_Gueteklassen_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="StadeholderMap" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t xml:space="preserve">Stakeholder Map ÖV-Güteklassen 2018</t>
   </si>
@@ -45,7 +45,7 @@
 Benutzer</t>
   </si>
   <si>
-    <t xml:space="preserve">Transportgsellschaften</t>
+    <t xml:space="preserve">Transportgesellschaften</t>
   </si>
   <si>
     <t xml:space="preserve">Raumplaner/
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hat keinen direkten Einfluss. Die Interessen fliessen in die Anforderungen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportgesellschaften</t>
   </si>
   <si>
     <t xml:space="preserve">Transportgesellschaften überprüfen mit den Güteklassen die aktuelle Erschliessung der Schweiz und können dadurch Erweiterungspotential eruieren.</t>
@@ -513,21 +510,21 @@
   </sheetPr>
   <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.63775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="31.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -695,7 +692,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="15"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -827,7 +824,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -874,7 +871,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -887,19 +884,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:D65536"/>
+  <dimension ref="B3:D1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.7040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.530612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.53"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,10 +964,10 @@
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>24</v>
@@ -978,10 +975,10 @@
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>24</v>
@@ -996,7 +993,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
